--- a/data/NACA 2112.xlsx
+++ b/data/NACA 2112.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a2f87afe3a2f19d/Documents/2023 DBF/Aerofoil data 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Downloads\ADOT_OO_14_12_2023_1.15_PM\ADOT 2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8A7F1C0F-A017-4535-B503-A56C7393F9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA945183-ADF8-4FA3-BCE5-993F01B4B24B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DF35F-DB85-45AD-AF54-5FEC26F54BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{ADFEA66A-EC30-4128-BE9A-B778BAEF1738}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19680" windowHeight="16395" xr2:uid="{ADFEA66A-EC30-4128-BE9A-B778BAEF1738}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="20" sheetId="3" r:id="rId3"/>
     <sheet name="30" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="23">
   <si>
     <t>Name = NACA 2112</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>10 flap deflection</t>
+  </si>
+  <si>
+    <t>Max_Thickness</t>
   </si>
 </sst>
 </file>
@@ -456,30 +459,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F18772-1CDA-4204-B770-C0C88BB0BD2E}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -513,8 +516,11 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -548,8 +554,11 @@
       <c r="K5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -584,7 +593,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -619,7 +628,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -654,7 +663,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -689,7 +698,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -724,7 +733,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -759,7 +768,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -794,7 +803,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -829,7 +838,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -864,7 +873,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -899,7 +908,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -934,7 +943,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -969,7 +978,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -1004,7 +1013,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -1074,7 +1083,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -1284,7 +1293,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -1564,7 +1573,7 @@
         <v>-0.76800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -2194,7 +2203,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -2264,7 +2273,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -2509,7 +2518,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -2693,13 +2702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3833D-ED69-4184-9E69-0A8BB0E42D2F}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="79" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="79" workbookViewId="0">
       <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -3044,7 +3053,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -3145,7 +3154,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -3751,7 +3760,7 @@
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -3852,7 +3861,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>-8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -4256,7 +4265,7 @@
         <v>-0.19800000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -4357,7 +4366,7 @@
         <v>-0.496</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -4458,7 +4467,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>-1.4750000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -4660,7 +4669,7 @@
         <v>-5.7279999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>4.0830000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -4862,7 +4871,7 @@
         <v>1.679</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -4963,7 +4972,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -5064,7 +5073,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -5266,7 +5275,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -5367,7 +5376,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -5973,7 +5982,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6175,7 +6184,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -6276,7 +6285,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -6377,7 +6386,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -6478,7 +6487,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -6579,7 +6588,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -6680,7 +6689,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -6781,7 +6790,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6882,7 +6891,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6983,7 +6992,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -7185,7 +7194,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -7286,7 +7295,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -7387,7 +7396,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -7488,7 +7497,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -7589,7 +7598,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -7690,7 +7699,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -7791,7 +7800,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -7892,7 +7901,7 @@
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -7993,7 +8002,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -8094,7 +8103,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -8195,7 +8204,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -8296,7 +8305,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -8397,7 +8406,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -8498,7 +8507,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -8599,7 +8608,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -8700,7 +8709,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -8801,7 +8810,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -8902,7 +8911,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -9003,7 +9012,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -9117,9 +9126,9 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9139,7 +9148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9150,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9161,7 +9170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9262,7 +9271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9363,7 +9372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -9464,7 +9473,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -9565,7 +9574,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -9666,7 +9675,7 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -9767,7 +9776,7 @@
         <v>-0.124</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -9868,7 +9877,7 @@
         <v>-0.14199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -9969,7 +9978,7 @@
         <v>-0.17699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -10070,7 +10079,7 @@
         <v>-0.221</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -10171,7 +10180,7 @@
         <v>-0.29199999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -10272,7 +10281,7 @@
         <v>-0.40899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>-0.63200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -10474,7 +10483,7 @@
         <v>-1.486</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -10575,7 +10584,7 @@
         <v>-4.2750000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -10676,7 +10685,7 @@
         <v>7.9509999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -10777,7 +10786,7 @@
         <v>2.2789999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -10878,7 +10887,7 @@
         <v>1.4039999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -10979,7 +10988,7 @@
         <v>1.052</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -11080,7 +11089,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -11181,7 +11190,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -11282,7 +11291,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -11383,7 +11392,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -11484,7 +11493,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -11585,7 +11594,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -11686,7 +11695,7 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -11787,7 +11796,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -11888,7 +11897,7 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -11989,7 +11998,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -12090,7 +12099,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -12191,7 +12200,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -12292,7 +12301,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -12393,7 +12402,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -12494,7 +12503,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -12595,7 +12604,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -12696,7 +12705,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -12797,7 +12806,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -12898,7 +12907,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -12999,7 +13008,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -13100,7 +13109,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -13201,7 +13210,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -13302,7 +13311,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -13403,7 +13412,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -13504,7 +13513,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -13605,7 +13614,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -13706,7 +13715,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -13807,7 +13816,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -13908,7 +13917,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -14009,7 +14018,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -14110,7 +14119,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -14211,7 +14220,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -14312,7 +14321,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -14413,7 +14422,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -14514,7 +14523,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -14615,7 +14624,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -14716,7 +14725,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -14817,7 +14826,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -14918,7 +14927,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -15019,7 +15028,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -15120,7 +15129,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -15221,7 +15230,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -15322,7 +15331,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -15423,7 +15432,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -15537,9 +15546,9 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15559,7 +15568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15570,7 +15579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15581,7 +15590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15682,7 +15691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -15783,7 +15792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -15884,7 +15893,7 @@
         <v>-0.159</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -15985,7 +15994,7 @@
         <v>-0.18099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -16086,7 +16095,7 @@
         <v>-0.217</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -16187,7 +16196,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -16288,7 +16297,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -16389,7 +16398,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -16490,7 +16499,7 @@
         <v>-0.83799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -16591,7 +16600,7 @@
         <v>-1.7889999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -16692,7 +16701,7 @@
         <v>-21.725999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -16793,7 +16802,7 @@
         <v>3.2759999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -16894,7 +16903,7 @@
         <v>1.6890000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -16995,7 +17004,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -17096,7 +17105,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -17197,7 +17206,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -17298,7 +17307,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -17399,7 +17408,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -17500,7 +17509,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -17601,7 +17610,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -17702,7 +17711,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -17803,7 +17812,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -17904,7 +17913,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -18005,7 +18014,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -18106,7 +18115,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -18207,7 +18216,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -18308,7 +18317,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -18409,7 +18418,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -18510,7 +18519,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -18611,7 +18620,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -18712,7 +18721,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -18813,7 +18822,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -18914,7 +18923,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -19015,7 +19024,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -19116,7 +19125,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -19217,7 +19226,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -19318,7 +19327,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -19419,7 +19428,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -19520,7 +19529,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -19621,7 +19630,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -19722,7 +19731,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -19823,7 +19832,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -19924,7 +19933,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -20025,7 +20034,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -20126,7 +20135,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -20227,7 +20236,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -20328,7 +20337,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -20429,7 +20438,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -20530,7 +20539,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -20631,7 +20640,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -20732,7 +20741,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -20833,7 +20842,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -20934,7 +20943,7 @@
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -21035,7 +21044,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -21136,7 +21145,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -21237,7 +21246,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -21338,7 +21347,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -21439,7 +21448,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -21540,7 +21549,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -21641,7 +21650,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -21742,7 +21751,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -21843,7 +21852,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -21950,6 +21959,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9df0515c-157b-471a-a0ef-89af1efb2dd1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5f869584-441e-42c5-8d1e-76b11125194b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7B4AA51A86DF64F8EEA3B7ACC01600E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37503d37778738f9b8e5b50734e360b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f869584-441e-42c5-8d1e-76b11125194b" xmlns:ns3="9df0515c-157b-471a-a0ef-89af1efb2dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f630545ba42abbb2436d67874f362a0" ns2:_="" ns3:_="">
     <xsd:import namespace="5f869584-441e-42c5-8d1e-76b11125194b"/>
@@ -22172,34 +22201,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9df0515c-157b-471a-a0ef-89af1efb2dd1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5f869584-441e-42c5-8d1e-76b11125194b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221E554D-ED49-4796-85FB-C9F3FAD71215}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38883DD-2430-4FEB-B61B-443439B44846}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9df0515c-157b-471a-a0ef-89af1efb2dd1"/>
+    <ds:schemaRef ds:uri="5f869584-441e-42c5-8d1e-76b11125194b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98DE473-D329-45AE-997C-C926E7BC04AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98DE473-D329-45AE-997C-C926E7BC04AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A38883DD-2430-4FEB-B61B-443439B44846}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221E554D-ED49-4796-85FB-C9F3FAD71215}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5f869584-441e-42c5-8d1e-76b11125194b"/>
+    <ds:schemaRef ds:uri="9df0515c-157b-471a-a0ef-89af1efb2dd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>